--- a/data/trans_orig/P05A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>160351</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142722</v>
+        <v>142273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>177761</v>
+        <v>177091</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5573434359234704</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4960704088234623</v>
+        <v>0.4945077574766724</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.617856610341267</v>
+        <v>0.6155271486764176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -764,19 +764,19 @@
         <v>137475</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>118473</v>
+        <v>118612</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155586</v>
+        <v>153792</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.495030129355953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4266064866835105</v>
+        <v>0.4271044918015071</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5602428331707523</v>
+        <v>0.5537847171135332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>275</v>
@@ -785,19 +785,19 @@
         <v>297826</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>271845</v>
+        <v>272527</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>323719</v>
+        <v>319625</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5267375385351079</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4807862408320017</v>
+        <v>0.4819937499356496</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5725316514842849</v>
+        <v>0.5652903183191744</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>98067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>81848</v>
+        <v>82718</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>114704</v>
+        <v>116671</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3408591942688599</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2844849981042166</v>
+        <v>0.2875087592251548</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3986836515868772</v>
+        <v>0.4055217720706027</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>98</v>
@@ -835,19 +835,19 @@
         <v>109660</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91616</v>
+        <v>92315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126572</v>
+        <v>126912</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3948706697227781</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.329896869988982</v>
+        <v>0.3324154786749919</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4557681951295126</v>
+        <v>0.4569935069362837</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>194</v>
@@ -856,19 +856,19 @@
         <v>207727</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>183553</v>
+        <v>185089</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>233426</v>
+        <v>230669</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3673875517994549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3246335655146668</v>
+        <v>0.3273503744352658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4128389393492276</v>
+        <v>0.4079634505925778</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>29288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20598</v>
+        <v>18920</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41506</v>
+        <v>40172</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1017973698076698</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07159565444999252</v>
+        <v>0.06576027355860067</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1442644217644447</v>
+        <v>0.1396271583190178</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -906,19 +906,19 @@
         <v>30576</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20476</v>
+        <v>21023</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44033</v>
+        <v>43579</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.110099200921269</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07373154030316686</v>
+        <v>0.0757019788774346</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1585551915664246</v>
+        <v>0.1569226429669415</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -927,19 +927,19 @@
         <v>59863</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45237</v>
+        <v>46197</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75547</v>
+        <v>77709</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1058749096654372</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08000720847850193</v>
+        <v>0.08170361476322656</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.133613428633519</v>
+        <v>0.1374364147853443</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>338746</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>313846</v>
+        <v>316567</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>358889</v>
+        <v>358039</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6714498417852558</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6220934996902932</v>
+        <v>0.6274883917753029</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7113760698437729</v>
+        <v>0.7096913197244624</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>320</v>
@@ -1052,19 +1052,19 @@
         <v>348668</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>326230</v>
+        <v>327801</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370065</v>
+        <v>372976</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6694581982789483</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6263768038294225</v>
+        <v>0.6293933795888084</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.710542234798797</v>
+        <v>0.7161307551397722</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>636</v>
@@ -1073,19 +1073,19 @@
         <v>687414</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>655438</v>
+        <v>658614</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>718248</v>
+        <v>717767</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6704381681513971</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6392518019970354</v>
+        <v>0.6423498901991259</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7005114390711257</v>
+        <v>0.7000421186600609</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>150907</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>130974</v>
+        <v>131823</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>173224</v>
+        <v>173890</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2991218015403959</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2596122912081914</v>
+        <v>0.261295053149628</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3433575183600681</v>
+        <v>0.3446782318830313</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>139</v>
@@ -1123,19 +1123,19 @@
         <v>151515</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>130662</v>
+        <v>128009</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>172599</v>
+        <v>171022</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2909159770155451</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2508762954159027</v>
+        <v>0.2457833669998201</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3313985664312964</v>
+        <v>0.328370855104859</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>280</v>
@@ -1144,19 +1144,19 @@
         <v>302422</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>270798</v>
+        <v>273709</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>332723</v>
+        <v>331352</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2949535775135703</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2641104533267217</v>
+        <v>0.2669495063093479</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3245063215112216</v>
+        <v>0.3231691550230813</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>14847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8913</v>
+        <v>8755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25231</v>
+        <v>25078</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02942835667434826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01766609378865586</v>
+        <v>0.0173534460109412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05001285905424991</v>
+        <v>0.049708793168567</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1194,19 +1194,19 @@
         <v>20638</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13232</v>
+        <v>12818</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31750</v>
+        <v>31968</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03962582470550673</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02540699853022524</v>
+        <v>0.02461154629533415</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06096170457646251</v>
+        <v>0.06137920512964202</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1215,19 +1215,19 @@
         <v>35485</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24406</v>
+        <v>25099</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48153</v>
+        <v>50602</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03460825433503252</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02380306280782303</v>
+        <v>0.02447920343502574</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0469639832192154</v>
+        <v>0.04935238700867624</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>274995</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>261610</v>
+        <v>261276</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>286983</v>
+        <v>286585</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8511312546002371</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8097013718651717</v>
+        <v>0.8086671415407393</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8882348188198144</v>
+        <v>0.8870024419900897</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>274</v>
@@ -1340,19 +1340,19 @@
         <v>295651</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>282063</v>
+        <v>282233</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>307388</v>
+        <v>308225</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8669597133359994</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8271150220304097</v>
+        <v>0.8276145405021803</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9013767547145022</v>
+        <v>0.9038322293124742</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>544</v>
@@ -1361,19 +1361,19 @@
         <v>570646</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>550753</v>
+        <v>551900</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>587045</v>
+        <v>588965</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8592591128884456</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8293052042687969</v>
+        <v>0.8310324918520779</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.883952903258699</v>
+        <v>0.8868429151420755</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>46175</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34456</v>
+        <v>35204</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59592</v>
+        <v>60051</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.142915252354862</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1066440933823537</v>
+        <v>0.1089576079642731</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1844410007243814</v>
+        <v>0.1858633089296174</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1411,19 +1411,19 @@
         <v>42355</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30974</v>
+        <v>30408</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55122</v>
+        <v>54570</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1242009308021424</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0908270130396519</v>
+        <v>0.08916919335488288</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1616371973300285</v>
+        <v>0.160018817034673</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -1432,19 +1432,19 @@
         <v>88530</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72190</v>
+        <v>70855</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108315</v>
+        <v>106841</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.133305513587511</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1087016780644125</v>
+        <v>0.1066916666219791</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1630965972304103</v>
+        <v>0.1608775273667216</v>
       </c>
     </row>
     <row r="14">
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6700</v>
+        <v>6339</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005953493044900842</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02073708380592211</v>
+        <v>0.01961889917117058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1482,19 +1482,19 @@
         <v>3014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8230</v>
+        <v>7680</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008839355861858179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0</v>
+        <v>0.002857503016824896</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02413423525476064</v>
+        <v>0.02252014060949434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1503,19 +1503,19 @@
         <v>4938</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1921</v>
+        <v>1900</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10984</v>
+        <v>10878</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00743537352404338</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002892804802457659</v>
+        <v>0.002861184072362503</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01653947348553508</v>
+        <v>0.01637943133805837</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>248651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>228836</v>
+        <v>229396</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>267454</v>
+        <v>266253</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.67097997635698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6175089691119813</v>
+        <v>0.619019486934123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7217194360484146</v>
+        <v>0.7184782077085641</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>241</v>
@@ -1628,19 +1628,19 @@
         <v>254167</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>233895</v>
+        <v>233676</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>271856</v>
+        <v>272026</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6600893139439187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6074424324990425</v>
+        <v>0.6068740741571441</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7060305063248182</v>
+        <v>0.7064723553935007</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>470</v>
@@ -1649,19 +1649,19 @@
         <v>502817</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>473176</v>
+        <v>476287</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>530599</v>
+        <v>529124</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6654303689913031</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6262034829799704</v>
+        <v>0.6303206417918108</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7021974378709553</v>
+        <v>0.7002449948245648</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>98973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82901</v>
+        <v>82166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117678</v>
+        <v>117612</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2670773972414254</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2237054979122977</v>
+        <v>0.2217228366828515</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3175524557814034</v>
+        <v>0.3173723120143595</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>110</v>
@@ -1699,19 +1699,19 @@
         <v>115298</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>98402</v>
+        <v>98676</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>135963</v>
+        <v>133076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2994378998342342</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2555571387271974</v>
+        <v>0.2562689335801207</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3531056331478669</v>
+        <v>0.3456079288029147</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>201</v>
@@ -1720,19 +1720,19 @@
         <v>214271</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>188833</v>
+        <v>189874</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>242450</v>
+        <v>238263</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2835674946050782</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.249902471006008</v>
+        <v>0.2512794358019229</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3208595532726803</v>
+        <v>0.3153180208875045</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>22955</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15555</v>
+        <v>14540</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33832</v>
+        <v>33941</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06194262640159459</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04197373528661091</v>
+        <v>0.03923675049714117</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09129541186503386</v>
+        <v>0.09158917873780781</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1770,19 +1770,19 @@
         <v>15584</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9505</v>
+        <v>8932</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24664</v>
+        <v>25595</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04047278622184718</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02468564295939876</v>
+        <v>0.02319623411828212</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06405477817867515</v>
+        <v>0.0664731399883098</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>37</v>
@@ -1791,19 +1791,19 @@
         <v>38539</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27401</v>
+        <v>28739</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>52555</v>
+        <v>53319</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05100213640361859</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03626319590797026</v>
+        <v>0.03803269858888536</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06955095649898774</v>
+        <v>0.0705628498276558</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>129110</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113493</v>
+        <v>113672</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>143206</v>
+        <v>144090</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6072413714689222</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5337899710903468</v>
+        <v>0.5346309399273624</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6735378609986893</v>
+        <v>0.6776926570245821</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>118</v>
@@ -1916,19 +1916,19 @@
         <v>122291</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>106363</v>
+        <v>107691</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>136218</v>
+        <v>137599</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5569046474904559</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4843664694411022</v>
+        <v>0.4904166215938213</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6203271487426267</v>
+        <v>0.6266133497587223</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>236</v>
@@ -1937,19 +1937,19 @@
         <v>251402</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>231533</v>
+        <v>230048</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>273303</v>
+        <v>273025</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5816669605973304</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5356965803723993</v>
+        <v>0.5322605661132858</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.632340252048487</v>
+        <v>0.6316958824648848</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>61351</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49169</v>
+        <v>48836</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>76487</v>
+        <v>75416</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2885519316579901</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2312551993896771</v>
+        <v>0.2296908628135592</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3597388132283841</v>
+        <v>0.3547010606329241</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>80</v>
@@ -1987,19 +1987,19 @@
         <v>83481</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69112</v>
+        <v>69134</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>99152</v>
+        <v>97881</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.380166799202927</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3147307912220556</v>
+        <v>0.3148322618200092</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4515307407907586</v>
+        <v>0.4457408872502708</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>137</v>
@@ -2008,19 +2008,19 @@
         <v>144833</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>125812</v>
+        <v>124335</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>166201</v>
+        <v>164962</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3350983907708835</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2910916284898999</v>
+        <v>0.2876739531505502</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3845394168581016</v>
+        <v>0.381672476715749</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>22156</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13924</v>
+        <v>14650</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33028</v>
+        <v>33965</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1042066968730877</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06548997863863969</v>
+        <v>0.06890126561158245</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1553416197626254</v>
+        <v>0.1597475106429971</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2058,19 +2058,19 @@
         <v>13819</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8198</v>
+        <v>7902</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22829</v>
+        <v>22476</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06292855330661709</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03733270329693005</v>
+        <v>0.03598330704043513</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1039621333974639</v>
+        <v>0.1023522290151369</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2079,19 +2079,19 @@
         <v>35975</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25413</v>
+        <v>26224</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49286</v>
+        <v>49708</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08323464863178616</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05879812849300826</v>
+        <v>0.06067519389761341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1140316644265462</v>
+        <v>0.1150097361230281</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>220623</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>207911</v>
+        <v>207362</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>233620</v>
+        <v>232967</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8052505118316893</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7588522811190279</v>
+        <v>0.756849108629812</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8526876960806961</v>
+        <v>0.8503027613841557</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>205</v>
@@ -2204,19 +2204,19 @@
         <v>213086</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>197618</v>
+        <v>196259</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>226564</v>
+        <v>225194</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7664508715336402</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7108118809669288</v>
+        <v>0.7059255874223277</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8149290970127591</v>
+        <v>0.8099996732585192</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>413</v>
@@ -2225,19 +2225,19 @@
         <v>433710</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>411832</v>
+        <v>415415</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>452120</v>
+        <v>452109</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7857088510059583</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7460756582338778</v>
+        <v>0.7525660513460941</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8190601843402282</v>
+        <v>0.8190406297006114</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>47420</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35894</v>
+        <v>36075</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60202</v>
+        <v>60572</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1730760630547516</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.131009569241903</v>
+        <v>0.1316699180670585</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.219730851320128</v>
+        <v>0.2210792672568794</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -2275,19 +2275,19 @@
         <v>61901</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48933</v>
+        <v>49738</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77441</v>
+        <v>77893</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2226514974207132</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1760068732817187</v>
+        <v>0.1789032769074392</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2785479143627492</v>
+        <v>0.2801752438771843</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -2296,19 +2296,19 @@
         <v>109320</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>91333</v>
+        <v>91221</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>131091</v>
+        <v>127149</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1980450142157917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1654585316717368</v>
+        <v>0.1652561091616572</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2374840511348845</v>
+        <v>0.2303429149375327</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>5938</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2055</v>
+        <v>1986</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12322</v>
+        <v>11861</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02167342511355907</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007501261014172874</v>
+        <v>0.007248558308417905</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04497448874691664</v>
+        <v>0.04329202047764941</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2346,19 +2346,19 @@
         <v>3030</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8020</v>
+        <v>8261</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01089763104564665</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0</v>
+        <v>0.003532852366925941</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02884854384272988</v>
+        <v>0.02971314435562463</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2367,19 +2367,19 @@
         <v>8968</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3997</v>
+        <v>4078</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15897</v>
+        <v>16838</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01624613477825004</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007241846167925555</v>
+        <v>0.007386853100494719</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02879898333751982</v>
+        <v>0.03050380578392913</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>497200</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>474365</v>
+        <v>471018</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>519596</v>
+        <v>516997</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.75712808268139</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7223547648848558</v>
+        <v>0.7172578628634499</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7912321225048701</v>
+        <v>0.7872754169424947</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>495</v>
@@ -2492,19 +2492,19 @@
         <v>539639</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>516077</v>
+        <v>515215</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>562073</v>
+        <v>560959</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7801666453145232</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7461032529852053</v>
+        <v>0.7448569519635481</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8125997283194112</v>
+        <v>0.8109899515382498</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>958</v>
@@ -2513,19 +2513,19 @@
         <v>1036840</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1007104</v>
+        <v>997490</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1070977</v>
+        <v>1065958</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7689464089294793</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7468940321022899</v>
+        <v>0.7397639259412444</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7942633086239301</v>
+        <v>0.7905413815521819</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>146319</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>124539</v>
+        <v>124825</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>168946</v>
+        <v>170720</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2228116745210114</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.189645778082787</v>
+        <v>0.1900817352829778</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2572675730712845</v>
+        <v>0.2599692518336926</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>125</v>
@@ -2563,19 +2563,19 @@
         <v>136852</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>116158</v>
+        <v>115357</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>160655</v>
+        <v>159265</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1978502469901073</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1679313050176459</v>
+        <v>0.166773722845224</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2322615428821046</v>
+        <v>0.2302522523493147</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>264</v>
@@ -2584,19 +2584,19 @@
         <v>283171</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>250740</v>
+        <v>254934</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>312148</v>
+        <v>321916</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.210006956671383</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1859550199019654</v>
+        <v>0.1890654540299305</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2314967220906256</v>
+        <v>0.2387410967051063</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>13173</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7092</v>
+        <v>7134</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23377</v>
+        <v>23976</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02006024279759865</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01079888373370051</v>
+        <v>0.0108630219430837</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03559877659621552</v>
+        <v>0.03650992211866776</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -2634,19 +2634,19 @@
         <v>15206</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9010</v>
+        <v>9081</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26050</v>
+        <v>25313</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02198310769536952</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01302528868293932</v>
+        <v>0.01312816702591037</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03766112247639022</v>
+        <v>0.03659572926478413</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>26</v>
@@ -2655,19 +2655,19 @@
         <v>28379</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18508</v>
+        <v>18802</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>41262</v>
+        <v>42685</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02104663439913775</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01372624511990582</v>
+        <v>0.01394390715417545</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03060124610912896</v>
+        <v>0.0316562433200583</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>557301</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>528253</v>
+        <v>530572</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>582566</v>
+        <v>583606</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7172114402992654</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6798278994487272</v>
+        <v>0.6828121696694993</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7497249448897072</v>
+        <v>0.7510641518591407</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>550</v>
@@ -2780,19 +2780,19 @@
         <v>598566</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>570976</v>
+        <v>573897</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>625150</v>
+        <v>624543</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7265452604713988</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6930558685049519</v>
+        <v>0.6966012847206375</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7588128958305432</v>
+        <v>0.7580760207738849</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1063</v>
@@ -2801,19 +2801,19 @@
         <v>1155868</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1120634</v>
+        <v>1119988</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1192903</v>
+        <v>1193265</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7220148218557746</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7000060709595781</v>
+        <v>0.6996024810754288</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7451489460612842</v>
+        <v>0.7453752742173139</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>195871</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>171861</v>
+        <v>170097</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>223960</v>
+        <v>220564</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2520741534264864</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2211743078376527</v>
+        <v>0.2189036380709893</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2882217584637087</v>
+        <v>0.2838518587635592</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>192</v>
@@ -2851,19 +2851,19 @@
         <v>208779</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>183569</v>
+        <v>182808</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>235531</v>
+        <v>232473</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2534175573849284</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2228173918898581</v>
+        <v>0.2218936730416184</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2858895059291231</v>
+        <v>0.2821774826152224</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>372</v>
@@ -2872,19 +2872,19 @@
         <v>404650</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>368019</v>
+        <v>371239</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>437829</v>
+        <v>440428</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.252765497557605</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2298837845053908</v>
+        <v>0.2318952979310315</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2734909512719091</v>
+        <v>0.2751142451967724</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>23866</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14871</v>
+        <v>15776</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>36535</v>
+        <v>37109</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0307144062742482</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01913834137061492</v>
+        <v>0.0203021720302502</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04701775943010879</v>
+        <v>0.04775731680754198</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -2922,19 +2922,19 @@
         <v>16508</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9345</v>
+        <v>9211</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26619</v>
+        <v>27472</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02003718214367287</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01134257732054214</v>
+        <v>0.01118044377807158</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03231083429989744</v>
+        <v>0.03334527185863052</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>37</v>
@@ -2943,19 +2943,19 @@
         <v>40374</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28614</v>
+        <v>29057</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>55534</v>
+        <v>56562</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02521968058662041</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01787402656408809</v>
+        <v>0.01815028325730851</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0346891075183546</v>
+        <v>0.03533174111614546</v>
       </c>
     </row>
     <row r="35">
@@ -3047,19 +3047,19 @@
         <v>2426978</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2374976</v>
+        <v>2367698</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2480862</v>
+        <v>2480940</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7125161801688694</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.697249261192701</v>
+        <v>0.6951125853268715</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7283354203327935</v>
+        <v>0.7283583767048603</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2326</v>
@@ -3068,19 +3068,19 @@
         <v>2509543</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2453862</v>
+        <v>2459017</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2563138</v>
+        <v>2571961</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7093596897607507</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6936206327762696</v>
+        <v>0.6950777547539883</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7245090297425106</v>
+        <v>0.7270032250265086</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4595</v>
@@ -3089,19 +3089,19 @@
         <v>4936521</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4858382</v>
+        <v>4854746</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5011183</v>
+        <v>5008549</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7109080357925113</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6996552484485827</v>
+        <v>0.6991316048936388</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7216600486350059</v>
+        <v>0.7212807684096333</v>
       </c>
     </row>
     <row r="37">
@@ -3118,19 +3118,19 @@
         <v>845083</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>794507</v>
+        <v>792939</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>901405</v>
+        <v>898013</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2481008856469084</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2332524918308294</v>
+        <v>0.2327923033277347</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2646359452724197</v>
+        <v>0.263640058229292</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>843</v>
@@ -3139,19 +3139,19 @@
         <v>909841</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>856449</v>
+        <v>851407</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>963554</v>
+        <v>959296</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2571802222461838</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2420880452281781</v>
+        <v>0.2406630029686966</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2723629713012654</v>
+        <v>0.2711592362373459</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1640</v>
@@ -3160,19 +3160,19 @@
         <v>1754925</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1683535</v>
+        <v>1688952</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1829479</v>
+        <v>1833061</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2527265559976351</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2424457399680307</v>
+        <v>0.243225806558617</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2634631849260347</v>
+        <v>0.2639789709694262</v>
       </c>
     </row>
     <row r="38">
@@ -3189,19 +3189,19 @@
         <v>134146</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>112299</v>
+        <v>112012</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>159860</v>
+        <v>159295</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03938293418422218</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03296897103849255</v>
+        <v>0.03288475119437773</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04693198731341453</v>
+        <v>0.04676612008281873</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>111</v>
@@ -3210,19 +3210,19 @@
         <v>118374</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>97515</v>
+        <v>98218</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>141905</v>
+        <v>143558</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03346008799306548</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02756394075089345</v>
+        <v>0.02776274701345709</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04011159234779616</v>
+        <v>0.04057889777997421</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>237</v>
@@ -3231,19 +3231,19 @@
         <v>252520</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>218724</v>
+        <v>220709</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>287180</v>
+        <v>286091</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03636540820985366</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03149844076115421</v>
+        <v>0.03178422493183417</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0413568303335216</v>
+        <v>0.04119994528255568</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         <v>164857</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>146737</v>
+        <v>147015</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>181599</v>
+        <v>181659</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5733697047298818</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5103470202995366</v>
+        <v>0.5113144620415153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6315972849277433</v>
+        <v>0.6318063007123629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -3600,19 +3600,19 @@
         <v>157578</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138379</v>
+        <v>140157</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>174875</v>
+        <v>173942</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5574085578378648</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4894930400176775</v>
+        <v>0.4957832167501383</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6185924489018412</v>
+        <v>0.6152926384546209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>299</v>
@@ -3621,19 +3621,19 @@
         <v>322435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>297702</v>
+        <v>299617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>348371</v>
+        <v>347707</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5654566587819234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5220813781353633</v>
+        <v>0.5254405579563691</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6109407287251556</v>
+        <v>0.60977665649725</v>
       </c>
     </row>
     <row r="5">
@@ -3650,19 +3650,19 @@
         <v>103777</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86185</v>
+        <v>86354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>120126</v>
+        <v>121037</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3609331000041409</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2997500626564494</v>
+        <v>0.300337034008594</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4177977203571433</v>
+        <v>0.4209631739725956</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -3671,19 +3671,19 @@
         <v>104220</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88242</v>
+        <v>89186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>122721</v>
+        <v>121286</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3686614778828309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3121406075489835</v>
+        <v>0.3154809202622134</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4341050841609452</v>
+        <v>0.4290290322764923</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -3692,19 +3692,19 @@
         <v>207996</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>185793</v>
+        <v>184649</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>231788</v>
+        <v>230879</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3647645921688955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3258265620151297</v>
+        <v>0.3238197015548978</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4064872183586851</v>
+        <v>0.4048942508861837</v>
       </c>
     </row>
     <row r="6">
@@ -3721,19 +3721,19 @@
         <v>18889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11487</v>
+        <v>11481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30155</v>
+        <v>29061</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06569719526597728</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03995216462860408</v>
+        <v>0.03992969267899941</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1048773642772316</v>
+        <v>0.1010726974513725</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -3742,19 +3742,19 @@
         <v>20900</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13080</v>
+        <v>12886</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31859</v>
+        <v>30949</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07392996427930432</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04626857395983458</v>
+        <v>0.04558301117571729</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.112694759590467</v>
+        <v>0.1094761258388105</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -3763,19 +3763,19 @@
         <v>39789</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29056</v>
+        <v>27901</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56002</v>
+        <v>53797</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06977874904918116</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05095600509562591</v>
+        <v>0.04892971958810645</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09821072280517311</v>
+        <v>0.09434477376007154</v>
       </c>
     </row>
     <row r="7">
@@ -3867,19 +3867,19 @@
         <v>346656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>325295</v>
+        <v>325465</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366053</v>
+        <v>368158</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6911576797540414</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6485673762338249</v>
+        <v>0.6489066401430796</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7298301988666877</v>
+        <v>0.7340273348981999</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>352</v>
@@ -3888,19 +3888,19 @@
         <v>377097</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>353480</v>
+        <v>355952</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>396078</v>
+        <v>397412</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7251084595984694</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6796960653739145</v>
+        <v>0.6844484351341754</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7616064157894636</v>
+        <v>0.7641706307960093</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>676</v>
@@ -3909,19 +3909,19 @@
         <v>723753</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>693873</v>
+        <v>693369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>752046</v>
+        <v>753039</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7084404256440618</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6791920888780131</v>
+        <v>0.6786987295555104</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7361349371451563</v>
+        <v>0.7371066189040877</v>
       </c>
     </row>
     <row r="9">
@@ -3938,19 +3938,19 @@
         <v>133381</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>116147</v>
+        <v>113679</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>154506</v>
+        <v>155134</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2659335336889278</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2315727103736261</v>
+        <v>0.2266519315723012</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.30805118943879</v>
+        <v>0.3093029147248046</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>110</v>
@@ -3959,19 +3959,19 @@
         <v>122351</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>103189</v>
+        <v>103582</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>144728</v>
+        <v>142946</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2352654214598324</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1984192214951581</v>
+        <v>0.1991744484569797</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2782931754855482</v>
+        <v>0.2748663469299625</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>240</v>
@@ -3980,19 +3980,19 @@
         <v>255733</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>228199</v>
+        <v>226524</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>283056</v>
+        <v>283594</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2503218395537466</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2233709593751006</v>
+        <v>0.2217317380656682</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2770670920029565</v>
+        <v>0.2775936143284864</v>
       </c>
     </row>
     <row r="10">
@@ -4009,19 +4009,19 @@
         <v>21521</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13314</v>
+        <v>13568</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33335</v>
+        <v>31155</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04290878655703078</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02654538186402589</v>
+        <v>0.02705111226250269</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06646193823145105</v>
+        <v>0.06211598218512664</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4030,19 +4030,19 @@
         <v>20608</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13190</v>
+        <v>13097</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31243</v>
+        <v>31294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03962611894169825</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02536206871451609</v>
+        <v>0.02518352134618575</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06007529777421178</v>
+        <v>0.06017517890615661</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -4051,19 +4051,19 @@
         <v>42129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30177</v>
+        <v>29916</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56955</v>
+        <v>56907</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04123773480219156</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02953824449778919</v>
+        <v>0.02928300821547609</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05574992804994734</v>
+        <v>0.05570266277930695</v>
       </c>
     </row>
     <row r="11">
@@ -4155,19 +4155,19 @@
         <v>254203</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>240635</v>
+        <v>240287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>267334</v>
+        <v>266454</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7979635640634847</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7553719447790612</v>
+        <v>0.7542779791692162</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8391831963558443</v>
+        <v>0.8364204287911161</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>267</v>
@@ -4176,19 +4176,19 @@
         <v>270796</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>254602</v>
+        <v>255919</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>286359</v>
+        <v>284938</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8073665958001034</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7590833335663959</v>
+        <v>0.7630107674258332</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8537664165034963</v>
+        <v>0.8495285192660101</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>533</v>
@@ -4197,19 +4197,19 @@
         <v>525000</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>503905</v>
+        <v>503967</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>544466</v>
+        <v>543542</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8027861628972085</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7705301158614606</v>
+        <v>0.7706251901183067</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8325517036469775</v>
+        <v>0.8311397554222545</v>
       </c>
     </row>
     <row r="13">
@@ -4226,19 +4226,19 @@
         <v>58629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46545</v>
+        <v>47420</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72366</v>
+        <v>72960</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1840399643811113</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1461071025395665</v>
+        <v>0.1488534568278472</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2271612043042832</v>
+        <v>0.22902592046057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -4247,19 +4247,19 @@
         <v>60991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46922</v>
+        <v>47785</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77076</v>
+        <v>76184</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1818424360313618</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1398957342358151</v>
+        <v>0.142469758642012</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2297980704668877</v>
+        <v>0.2271378518813001</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -4268,19 +4268,19 @@
         <v>119620</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101798</v>
+        <v>100112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>140657</v>
+        <v>139191</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1829129026042904</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1556612827772408</v>
+        <v>0.1530833549006905</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2150815572270491</v>
+        <v>0.2128387595109894</v>
       </c>
     </row>
     <row r="14">
@@ -4297,19 +4297,19 @@
         <v>5733</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2103</v>
+        <v>2120</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12346</v>
+        <v>12140</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01799647155540406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006602749039446479</v>
+        <v>0.006654600908927815</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0387541198464065</v>
+        <v>0.03810962960163499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4318,19 +4318,19 @@
         <v>3619</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10527</v>
+        <v>11360</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01079096816853487</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002680936005732665</v>
+        <v>0.002685249665618055</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03138572391075337</v>
+        <v>0.03386833639391643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -4339,19 +4339,19 @@
         <v>9352</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4479</v>
+        <v>4690</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17728</v>
+        <v>18242</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01430093449850115</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006849534367570214</v>
+        <v>0.007172246188023155</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02710775340938965</v>
+        <v>0.0278941492551228</v>
       </c>
     </row>
     <row r="15">
@@ -4443,19 +4443,19 @@
         <v>268827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>251034</v>
+        <v>249385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>286067</v>
+        <v>284143</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7335298861166183</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6849790138681653</v>
+        <v>0.6804810981766001</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7805718321723335</v>
+        <v>0.7753204707009618</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>262</v>
@@ -4464,19 +4464,19 @@
         <v>284866</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>265291</v>
+        <v>265959</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>301270</v>
+        <v>302097</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.748021485830114</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6966199670818386</v>
+        <v>0.6983731838211835</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7910973897530174</v>
+        <v>0.7932683313571584</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>517</v>
@@ -4485,19 +4485,19 @@
         <v>553693</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>527751</v>
+        <v>529335</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>575632</v>
+        <v>576957</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7409147483081077</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7062004910960503</v>
+        <v>0.7083204986099016</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7702718698837536</v>
+        <v>0.7720448009342885</v>
       </c>
     </row>
     <row r="17">
@@ -4514,19 +4514,19 @@
         <v>73764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58204</v>
+        <v>59795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90277</v>
+        <v>90025</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2012745109078221</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1588185298721788</v>
+        <v>0.1631572523516268</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2463330595053394</v>
+        <v>0.2456463588049914</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -4535,19 +4535,19 @@
         <v>71640</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57748</v>
+        <v>56591</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89601</v>
+        <v>87664</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1881173126335633</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1516375454279116</v>
+        <v>0.1486004150822073</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2352811384042488</v>
+        <v>0.2301956420627451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>141</v>
@@ -4556,19 +4556,19 @@
         <v>145404</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>123759</v>
+        <v>123947</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>168593</v>
+        <v>167375</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1945696544390766</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1656060711896793</v>
+        <v>0.1658569942765525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2256004432842869</v>
+        <v>0.2239694019116185</v>
       </c>
     </row>
     <row r="18">
@@ -4585,19 +4585,19 @@
         <v>23893</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14774</v>
+        <v>15718</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34151</v>
+        <v>35922</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06519560297555958</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0403131501949729</v>
+        <v>0.04288851508964114</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09318532065899925</v>
+        <v>0.09801740682446908</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -4606,19 +4606,19 @@
         <v>24320</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15264</v>
+        <v>15501</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37240</v>
+        <v>36456</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06386120153632267</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04008234613665997</v>
+        <v>0.04070272808922379</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09778856142119097</v>
+        <v>0.09572956083233407</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -4627,19 +4627,19 @@
         <v>48213</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>35367</v>
+        <v>35678</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>63753</v>
+        <v>63529</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06451559725281578</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04732537791486875</v>
+        <v>0.04774148439095067</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08531003369362487</v>
+        <v>0.0850104350535667</v>
       </c>
     </row>
     <row r="19">
@@ -4731,19 +4731,19 @@
         <v>183913</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>172069</v>
+        <v>173181</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>192294</v>
+        <v>192346</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8707149706132702</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8146392346810409</v>
+        <v>0.8199049425216143</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.910390177797722</v>
+        <v>0.9106390351651997</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -4752,19 +4752,19 @@
         <v>187545</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>175431</v>
+        <v>176401</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>196903</v>
+        <v>196942</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8579856296168445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8025691043587821</v>
+        <v>0.8070072225575168</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9008010605795732</v>
+        <v>0.9009771624180273</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>376</v>
@@ -4773,19 +4773,19 @@
         <v>371458</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>357427</v>
+        <v>354914</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>384366</v>
+        <v>384824</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8642412230988965</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8315964228972736</v>
+        <v>0.8257496316373454</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8942726700474127</v>
+        <v>0.89534019098005</v>
       </c>
     </row>
     <row r="21">
@@ -4802,19 +4802,19 @@
         <v>21661</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13985</v>
+        <v>13673</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32312</v>
+        <v>31793</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1025502880200349</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06620824039249774</v>
+        <v>0.06473204815643056</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1529753160450149</v>
+        <v>0.1505222356440592</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -4823,19 +4823,19 @@
         <v>20137</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13295</v>
+        <v>12762</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32080</v>
+        <v>30502</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09212457892682513</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06082104200741707</v>
+        <v>0.0583836217076006</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1467613182598404</v>
+        <v>0.1395422903797517</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>42</v>
@@ -4844,19 +4844,19 @@
         <v>41798</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>31380</v>
+        <v>30015</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>55110</v>
+        <v>56302</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0972480961511312</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07300908061596834</v>
+        <v>0.06983355172346642</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1282211812342393</v>
+        <v>0.1309929542310656</v>
       </c>
     </row>
     <row r="22">
@@ -4873,19 +4873,19 @@
         <v>5647</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2690</v>
+        <v>2141</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12073</v>
+        <v>11888</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02673474136669492</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0127336156941366</v>
+        <v>0.01013411576007561</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05715718155992299</v>
+        <v>0.05628254864785858</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -4894,19 +4894,19 @@
         <v>10905</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5739</v>
+        <v>5796</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19230</v>
+        <v>18594</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04988979145633032</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02625536394179513</v>
+        <v>0.02651398989749516</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08797357648585745</v>
+        <v>0.08506360540485762</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -4915,19 +4915,19 @@
         <v>16552</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9752</v>
+        <v>9695</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25377</v>
+        <v>25371</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03851068074997231</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0226896130521806</v>
+        <v>0.02255598290904538</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05904149850392355</v>
+        <v>0.05902815102549935</v>
       </c>
     </row>
     <row r="23">
@@ -5019,19 +5019,19 @@
         <v>236586</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>223807</v>
+        <v>225458</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>245070</v>
+        <v>245634</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8991447370821883</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8505796803258047</v>
+        <v>0.856853783102168</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9313908819898131</v>
+        <v>0.9335331146178879</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>242</v>
@@ -5040,19 +5040,19 @@
         <v>250115</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>239346</v>
+        <v>238575</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>257864</v>
+        <v>257999</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9192694960853118</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8796881995132522</v>
+        <v>0.8768560521616534</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9477513213305876</v>
+        <v>0.9482483206107194</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>475</v>
@@ -5061,19 +5061,19 @@
         <v>486701</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>471638</v>
+        <v>470639</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>498908</v>
+        <v>499468</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9093755186354993</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8812327716124816</v>
+        <v>0.8793647656858717</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9321853572863081</v>
+        <v>0.9332307940310803</v>
       </c>
     </row>
     <row r="25">
@@ -5090,19 +5090,19 @@
         <v>22824</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15500</v>
+        <v>15120</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34548</v>
+        <v>33241</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08674374578938886</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05890844260796307</v>
+        <v>0.05746516124737829</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1312986383999228</v>
+        <v>0.1263324407050614</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -5111,19 +5111,19 @@
         <v>21965</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14216</v>
+        <v>14081</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32734</v>
+        <v>33505</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08073050391468822</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05224867866941266</v>
+        <v>0.05175167938928066</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.120311800486748</v>
+        <v>0.1231439478383467</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -5132,19 +5132,19 @@
         <v>44789</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33035</v>
+        <v>32124</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59477</v>
+        <v>59582</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08368680662118637</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06172499643411127</v>
+        <v>0.06002273564625107</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1111301291863679</v>
+        <v>0.1113250612178175</v>
       </c>
     </row>
     <row r="26">
@@ -5161,19 +5161,19 @@
         <v>3713</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11767</v>
+        <v>11490</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01411151712842278</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003698441691708815</v>
+        <v>0.003711296309715569</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0447196781224973</v>
+        <v>0.0436676452196602</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -5195,19 +5195,19 @@
         <v>3713</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9779</v>
+        <v>11168</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006937674743314414</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001820890004245945</v>
+        <v>0.001816235081526313</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01827183186656156</v>
+        <v>0.02086744001352796</v>
       </c>
     </row>
     <row r="27">
@@ -5299,19 +5299,19 @@
         <v>427417</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>401308</v>
+        <v>403628</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>453123</v>
+        <v>454538</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6558809885643654</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6158169737898519</v>
+        <v>0.6193773797756879</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6953277941320812</v>
+        <v>0.69749963720821</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>410</v>
@@ -5320,19 +5320,19 @@
         <v>436477</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>408041</v>
+        <v>411584</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>462354</v>
+        <v>461748</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6374659251361017</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5959365416539317</v>
+        <v>0.6011110718292443</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6752589731429472</v>
+        <v>0.6743742994104998</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>784</v>
@@ -5341,19 +5341,19 @@
         <v>863893</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>827476</v>
+        <v>825164</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>899074</v>
+        <v>900281</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.646445832704643</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6191947675485949</v>
+        <v>0.6174651050262799</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.67277105553629</v>
+        <v>0.6736741373559172</v>
       </c>
     </row>
     <row r="29">
@@ -5370,19 +5370,19 @@
         <v>200571</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>175278</v>
+        <v>173973</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>225794</v>
+        <v>224649</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3077809054798523</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2689684018006265</v>
+        <v>0.2669653982890615</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3464858246659717</v>
+        <v>0.3447288359440134</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>209</v>
@@ -5391,7 +5391,7 @@
         <v>224716</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>199149</v>
+        <v>199885</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>251233</v>
@@ -5400,10 +5400,10 @@
         <v>0.3281940893931571</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2908527302973926</v>
+        <v>0.2919280823839382</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3669204907432178</v>
+        <v>0.3669209158418644</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>388</v>
@@ -5412,19 +5412,19 @@
         <v>425287</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>389344</v>
+        <v>391886</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>462938</v>
+        <v>464764</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3182398198661912</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2913432452528708</v>
+        <v>0.293245834278244</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3464136214081182</v>
+        <v>0.3477798521713868</v>
       </c>
     </row>
     <row r="30">
@@ -5441,19 +5441,19 @@
         <v>23680</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15529</v>
+        <v>15236</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34122</v>
+        <v>34809</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03633810595578237</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02382913258826626</v>
+        <v>0.02337990162926974</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.052361737527121</v>
+        <v>0.05341568142501196</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>21</v>
@@ -5462,19 +5462,19 @@
         <v>23513</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15004</v>
+        <v>14616</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>35220</v>
+        <v>35753</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0343399854707412</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02191313161137593</v>
+        <v>0.02134574729524242</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05143858229206336</v>
+        <v>0.05221602051486886</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>43</v>
@@ -5483,19 +5483,19 @@
         <v>47193</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>35063</v>
+        <v>34308</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>63031</v>
+        <v>62506</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03531434742916592</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02623778527278041</v>
+        <v>0.02567218077753919</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04716535953297504</v>
+        <v>0.04677247688922196</v>
       </c>
     </row>
     <row r="31">
@@ -5587,19 +5587,19 @@
         <v>693675</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>676157</v>
+        <v>674970</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>710738</v>
+        <v>709094</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8933632969404087</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8708022999482855</v>
+        <v>0.8692737279296713</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9153383161729182</v>
+        <v>0.9132202730793963</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>652</v>
@@ -5608,19 +5608,19 @@
         <v>712031</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>688697</v>
+        <v>689835</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>731795</v>
+        <v>731999</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8683711880736693</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8399141900030843</v>
+        <v>0.8413027314873974</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8924747754684743</v>
+        <v>0.8927239098217136</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1317</v>
@@ -5629,19 +5629,19 @@
         <v>1405707</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1378010</v>
+        <v>1378620</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1431386</v>
+        <v>1431028</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8805268656141523</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8631780488211122</v>
+        <v>0.8635602830808893</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8966123059182277</v>
+        <v>0.8963882615624258</v>
       </c>
     </row>
     <row r="33">
@@ -5658,19 +5658,19 @@
         <v>68306</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>52644</v>
+        <v>54025</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>84378</v>
+        <v>84978</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08796965107497967</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06779885310914731</v>
+        <v>0.06957691489390029</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1086684053677761</v>
+        <v>0.1094412429180174</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>83</v>
@@ -5679,19 +5679,19 @@
         <v>92426</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>75818</v>
+        <v>74412</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>112782</v>
+        <v>114678</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1127200112163735</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.09246484535559241</v>
+        <v>0.09075079122462849</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1375452221622788</v>
+        <v>0.1398579514417252</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>151</v>
@@ -5700,19 +5700,19 @@
         <v>160732</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>138586</v>
+        <v>137453</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>185778</v>
+        <v>184762</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1006819155721119</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08680927910731086</v>
+        <v>0.08609951820166752</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1163700950981426</v>
+        <v>0.1157338389447349</v>
       </c>
     </row>
     <row r="34">
@@ -5729,19 +5729,19 @@
         <v>14495</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8364</v>
+        <v>8350</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>22805</v>
+        <v>22891</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0186670519846116</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01077131364790001</v>
+        <v>0.01075327723474072</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02936990565234416</v>
+        <v>0.0294800047913475</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -5750,19 +5750,19 @@
         <v>15504</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9227</v>
+        <v>9260</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25845</v>
+        <v>24857</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01890880070995728</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01125290606001446</v>
+        <v>0.011292681351865</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03152007909641143</v>
+        <v>0.03031425691359293</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>30</v>
@@ -5771,19 +5771,19 @@
         <v>29999</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>21005</v>
+        <v>20490</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>43024</v>
+        <v>41280</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01879121881373581</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01315743934279924</v>
+        <v>0.0128348417433363</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02694974444698104</v>
+        <v>0.0258578726596506</v>
       </c>
     </row>
     <row r="35">
@@ -5875,19 +5875,19 @@
         <v>2576134</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2524021</v>
+        <v>2526255</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2620936</v>
+        <v>2626530</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.762933090382628</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7474995915107464</v>
+        <v>0.7481611235077689</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7762012651922908</v>
+        <v>0.777857870607117</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2529</v>
@@ -5896,19 +5896,19 @@
         <v>2676505</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2625978</v>
+        <v>2623490</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2728191</v>
+        <v>2729567</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7615993079400444</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7472217051422017</v>
+        <v>0.7465137650495378</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7763064075225442</v>
+        <v>0.7766979750675779</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4977</v>
@@ -5917,19 +5917,19 @@
         <v>5252640</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5178387</v>
+        <v>5176604</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5325083</v>
+        <v>5320428</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7622528725914741</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7514775178680562</v>
+        <v>0.7512187794519716</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7727657252626221</v>
+        <v>0.7720901815336111</v>
       </c>
     </row>
     <row r="37">
@@ -5946,19 +5946,19 @@
         <v>682913</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>642098</v>
+        <v>637988</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>732632</v>
+        <v>730939</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2022475199120878</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1901601761468751</v>
+        <v>0.1889428634260032</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2169720351652262</v>
+        <v>0.2164707092924227</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>671</v>
@@ -5967,19 +5967,19 @@
         <v>718447</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>671560</v>
+        <v>667423</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>768298</v>
+        <v>768258</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2044340899926015</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1910924710427391</v>
+        <v>0.1899151831220894</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2186190229197416</v>
+        <v>0.2186078787320696</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1325</v>
@@ -5988,19 +5988,19 @@
         <v>1401360</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1328700</v>
+        <v>1330378</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1465644</v>
+        <v>1473593</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2033626522026951</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1928184385270017</v>
+        <v>0.1930618623512411</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2126914434445805</v>
+        <v>0.2138448898156615</v>
       </c>
     </row>
     <row r="38">
@@ -6017,19 +6017,19 @@
         <v>117572</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>97630</v>
+        <v>98605</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>139882</v>
+        <v>141456</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03481938970528423</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0289134455982817</v>
+        <v>0.02920224421283763</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04142664327224954</v>
+        <v>0.04189283501976057</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>110</v>
@@ -6038,19 +6038,19 @@
         <v>119370</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>96831</v>
+        <v>99544</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>142817</v>
+        <v>146077</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03396660206735412</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02755316337589103</v>
+        <v>0.02832537594458865</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.040638422704732</v>
+        <v>0.04156616417960877</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>222</v>
@@ -6059,19 +6059,19 @@
         <v>236941</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>205514</v>
+        <v>206654</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>268337</v>
+        <v>268076</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03438447520583074</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02982378766102469</v>
+        <v>0.02998925571051489</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0389404960158222</v>
+        <v>0.03890261255641407</v>
       </c>
     </row>
     <row r="39">
@@ -6407,19 +6407,19 @@
         <v>298783</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>290163</v>
+        <v>290052</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>305202</v>
+        <v>305407</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9402591711532954</v>
+        <v>0.9402591711532957</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9131298718712281</v>
+        <v>0.9127809382080754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9604569664826768</v>
+        <v>0.961103913568669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>511</v>
@@ -6428,19 +6428,19 @@
         <v>297690</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>285611</v>
+        <v>286005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>303530</v>
+        <v>303552</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9418748567752194</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9036568539812601</v>
+        <v>0.9049046391837398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9603533934004304</v>
+        <v>0.9604237118626733</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>820</v>
@@ -6449,19 +6449,19 @@
         <v>596473</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>582596</v>
+        <v>582916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>605447</v>
+        <v>606666</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9410648393252082</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9191711746850232</v>
+        <v>0.9196754971174924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9552224249427302</v>
+        <v>0.9571467145691107</v>
       </c>
     </row>
     <row r="5">
@@ -6478,19 +6478,19 @@
         <v>18984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12565</v>
+        <v>12360</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27604</v>
+        <v>27715</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0597408288467044</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03954303351732331</v>
+        <v>0.03889608643133092</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.086870128128772</v>
+        <v>0.08721906179192465</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -6499,19 +6499,19 @@
         <v>17873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11914</v>
+        <v>12037</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29473</v>
+        <v>29655</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.05655056242432999</v>
+        <v>0.05655056242432998</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03769474551250834</v>
+        <v>0.03808374388638004</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09325045813213789</v>
+        <v>0.09382705181513938</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -6520,19 +6520,19 @@
         <v>36857</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27864</v>
+        <v>26644</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50609</v>
+        <v>50072</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05814998958840351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0439607236999037</v>
+        <v>0.04203586582886623</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07984724765880026</v>
+        <v>0.07899926630554593</v>
       </c>
     </row>
     <row r="6">
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2512</v>
+        <v>2521</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001574580800450591</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.007947304386235501</v>
+        <v>0.007976706122666486</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2549</v>
+        <v>2498</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0007851710863882415</v>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.004022238437124346</v>
+        <v>0.003940626999845961</v>
       </c>
     </row>
     <row r="7">
@@ -6687,19 +6687,19 @@
         <v>405362</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>377620</v>
+        <v>378359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>430274</v>
+        <v>428423</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7639007827905597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7116215217826339</v>
+        <v>0.7130136257388766</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8108471880118482</v>
+        <v>0.8073602538029666</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>556</v>
@@ -6708,19 +6708,19 @@
         <v>416173</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>398214</v>
+        <v>396179</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>433935</v>
+        <v>435477</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7642125552597075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7312347169286556</v>
+        <v>0.7274979262090731</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7968294153033499</v>
+        <v>0.7996605599236413</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>849</v>
@@ -6729,19 +6729,19 @@
         <v>821534</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>789108</v>
+        <v>785693</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>853091</v>
+        <v>849792</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7640586885672879</v>
+        <v>0.7640586885672876</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7339007156283345</v>
+        <v>0.7307251317757667</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7934079826593415</v>
+        <v>0.7903398369034925</v>
       </c>
     </row>
     <row r="9">
@@ -6758,19 +6758,19 @@
         <v>96755</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>76978</v>
+        <v>77619</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>120953</v>
+        <v>119812</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1823346845778687</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1450641207506991</v>
+        <v>0.1462730478471262</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2279358642061874</v>
+        <v>0.2257848150485518</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>137</v>
@@ -6779,19 +6779,19 @@
         <v>113422</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>96758</v>
+        <v>95265</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>131829</v>
+        <v>132818</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2082762534072688</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.177675146251748</v>
+        <v>0.1749331103728592</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.242075661563069</v>
+        <v>0.2438911445701162</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>210</v>
@@ -6800,19 +6800,19 @@
         <v>210178</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>184342</v>
+        <v>183636</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>240903</v>
+        <v>240019</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1954735084988638</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1714456515480687</v>
+        <v>0.1707881755138429</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2240487600070599</v>
+        <v>0.2232265185321948</v>
       </c>
     </row>
     <row r="10">
@@ -6829,19 +6829,19 @@
         <v>28530</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16276</v>
+        <v>16219</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49969</v>
+        <v>48029</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05376453263157151</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03067198914189957</v>
+        <v>0.03056491264526758</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09416613144576191</v>
+        <v>0.09050984841430761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -6850,19 +6850,19 @@
         <v>14982</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9396</v>
+        <v>9325</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22025</v>
+        <v>22536</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02751119133302361</v>
+        <v>0.0275111913330236</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01725439361574705</v>
+        <v>0.01712248806794853</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04044398061368031</v>
+        <v>0.04138258732593467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -6871,19 +6871,19 @@
         <v>43512</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28844</v>
+        <v>30666</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64305</v>
+        <v>66754</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04046780293384854</v>
+        <v>0.04046780293384853</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02682640292115325</v>
+        <v>0.02852072182631377</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05980653237809903</v>
+        <v>0.06208409461603971</v>
       </c>
     </row>
     <row r="11">
@@ -6975,19 +6975,19 @@
         <v>266892</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>253718</v>
+        <v>253060</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>278346</v>
+        <v>278246</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.847523234067123</v>
+        <v>0.8475232340671229</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8056907406570429</v>
+        <v>0.8035992471004509</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8838977265029078</v>
+        <v>0.8835783433159982</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>468</v>
@@ -6996,19 +6996,19 @@
         <v>306555</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>293582</v>
+        <v>294304</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>318069</v>
+        <v>316301</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8601896960376104</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8237879496220076</v>
+        <v>0.8258125594433959</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8924983050330486</v>
+        <v>0.8875363951535329</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>774</v>
@@ -7017,19 +7017,19 @@
         <v>573447</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>554650</v>
+        <v>555681</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>589501</v>
+        <v>589376</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8542477458154205</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8262467520732192</v>
+        <v>0.8277825856180995</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8781624676097729</v>
+        <v>0.8779772469238279</v>
       </c>
     </row>
     <row r="13">
@@ -7046,19 +7046,19 @@
         <v>29146</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20356</v>
+        <v>19865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40085</v>
+        <v>39707</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09255256505128609</v>
+        <v>0.09255256505128606</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06464172493749699</v>
+        <v>0.06308244305526288</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1272918418571033</v>
+        <v>0.1260903278899748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -7067,19 +7067,19 @@
         <v>32272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22772</v>
+        <v>23744</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43158</v>
+        <v>42588</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09055367963482801</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06389887519841288</v>
+        <v>0.06662476136311957</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1211010562894402</v>
+        <v>0.1195022541396507</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -7088,19 +7088,19 @@
         <v>61417</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48167</v>
+        <v>48154</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76553</v>
+        <v>76224</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0914913746022253</v>
+        <v>0.09149137460222528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07175241948148905</v>
+        <v>0.07173321849826202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1140392421781455</v>
+        <v>0.1135485659327447</v>
       </c>
     </row>
     <row r="14">
@@ -7117,19 +7117,19 @@
         <v>18871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11712</v>
+        <v>11706</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29767</v>
+        <v>29857</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05992420088159099</v>
+        <v>0.05992420088159098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03719198251889036</v>
+        <v>0.03717401018764414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09452535315327716</v>
+        <v>0.09481150674283237</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -7138,19 +7138,19 @@
         <v>17554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11251</v>
+        <v>11207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26620</v>
+        <v>25466</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04925662432756159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03156925125238377</v>
+        <v>0.03144654478564656</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07469442572918303</v>
+        <v>0.07145799216302465</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -7159,19 +7159,19 @@
         <v>36425</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26409</v>
+        <v>26982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48977</v>
+        <v>48643</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05426087958235421</v>
+        <v>0.0542608795823542</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0393401724045675</v>
+        <v>0.04019372882832344</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07295986521961834</v>
+        <v>0.07246253638617926</v>
       </c>
     </row>
     <row r="15">
@@ -7263,19 +7263,19 @@
         <v>314960</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>296511</v>
+        <v>296987</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>330264</v>
+        <v>329906</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8454019679208165</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7958797768352364</v>
+        <v>0.7971597088344834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8864794414039768</v>
+        <v>0.8855175821576282</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>499</v>
@@ -7284,19 +7284,19 @@
         <v>355789</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>339527</v>
+        <v>337406</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>368570</v>
+        <v>367943</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8454575209835652</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8068158386107827</v>
+        <v>0.8017745902380481</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.875829257233286</v>
+        <v>0.8743402428007907</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>737</v>
@@ -7305,19 +7305,19 @@
         <v>670749</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>646349</v>
+        <v>642473</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>691017</v>
+        <v>689710</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.845431434296034</v>
+        <v>0.8454314342960342</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8146766020781308</v>
+        <v>0.8097915267830349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8709780525867621</v>
+        <v>0.8693306460564481</v>
       </c>
     </row>
     <row r="17">
@@ -7334,19 +7334,19 @@
         <v>48383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35056</v>
+        <v>35101</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>66427</v>
+        <v>64481</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1298670804687549</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09409623961345707</v>
+        <v>0.09421767539234835</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1783000988140092</v>
+        <v>0.1730776989182925</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>80</v>
@@ -7355,19 +7355,19 @@
         <v>51954</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40033</v>
+        <v>41164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66449</v>
+        <v>66635</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1234572893432093</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0951301412373035</v>
+        <v>0.09781870730856189</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1579015218886166</v>
+        <v>0.1583429536146519</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>127</v>
@@ -7376,19 +7376,19 @@
         <v>100337</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82064</v>
+        <v>82871</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>122054</v>
+        <v>123416</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1264672083280373</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1034353956112614</v>
+        <v>0.104452696559384</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1538400947217666</v>
+        <v>0.1555569372633485</v>
       </c>
     </row>
     <row r="18">
@@ -7405,19 +7405,19 @@
         <v>9214</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3524</v>
+        <v>3119</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20815</v>
+        <v>21614</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02473095161042857</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009458886613125293</v>
+        <v>0.008371977879836519</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05587124017483169</v>
+        <v>0.05801578661521867</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -7426,19 +7426,19 @@
         <v>13081</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7611</v>
+        <v>7434</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28497</v>
+        <v>26364</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03108518967322544</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01808570245929384</v>
+        <v>0.01766540760663846</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.067717233176282</v>
+        <v>0.06264890068075075</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -7447,19 +7447,19 @@
         <v>22295</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13083</v>
+        <v>13455</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>38174</v>
+        <v>37673</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.02810135737592871</v>
+        <v>0.0281013573759287</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01649041805297032</v>
+        <v>0.01695910424942255</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04811542231458139</v>
+        <v>0.04748470464105068</v>
       </c>
     </row>
     <row r="19">
@@ -7551,19 +7551,19 @@
         <v>188521</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179588</v>
+        <v>179336</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194450</v>
+        <v>194554</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9166426245259441</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8732072101177824</v>
+        <v>0.8719794867015108</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.945467197917372</v>
+        <v>0.9459760803979292</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>462</v>
@@ -7572,19 +7572,19 @@
         <v>213691</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>208021</v>
+        <v>208105</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>218440</v>
+        <v>218190</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9334809429486682</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9087146400072829</v>
+        <v>0.9090819613252502</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9542301339195648</v>
+        <v>0.953135535035658</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>721</v>
@@ -7593,19 +7593,19 @@
         <v>402211</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>392033</v>
+        <v>391586</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>410733</v>
+        <v>410112</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9255122614001624</v>
+        <v>0.9255122614001623</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9020926454489322</v>
+        <v>0.9010644432022545</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9451223802378915</v>
+        <v>0.9436925842665644</v>
       </c>
     </row>
     <row r="21">
@@ -7622,19 +7622,19 @@
         <v>16138</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10499</v>
+        <v>10352</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25463</v>
+        <v>25067</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07846620757269282</v>
+        <v>0.07846620757269283</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05104809601602922</v>
+        <v>0.05033605948179908</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.123806286070016</v>
+        <v>0.1218834768490435</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>33</v>
@@ -7643,19 +7643,19 @@
         <v>15227</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10478</v>
+        <v>10728</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20897</v>
+        <v>20813</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06651905705133181</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04576986608043521</v>
+        <v>0.04686446496434196</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0912853599927171</v>
+        <v>0.09091803867474989</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>52</v>
@@ -7664,19 +7664,19 @@
         <v>31365</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22885</v>
+        <v>23559</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>41134</v>
+        <v>41780</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0721730086827674</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05265882732643876</v>
+        <v>0.05420978452393255</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09465295074541552</v>
+        <v>0.09613873935878842</v>
       </c>
     </row>
     <row r="22">
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4559</v>
+        <v>5063</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004891167901362948</v>
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02216580254761018</v>
+        <v>0.02461598442030542</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5783</v>
+        <v>5053</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002314729917070306</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01330802480983975</v>
+        <v>0.01162706332123512</v>
       </c>
     </row>
     <row r="23">
@@ -7831,19 +7831,19 @@
         <v>237546</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>227381</v>
+        <v>227282</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>246472</v>
+        <v>246050</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8788782973668485</v>
+        <v>0.8788782973668484</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.841268376166496</v>
+        <v>0.8409056093501938</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9119051194477358</v>
+        <v>0.9103434444507801</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>411</v>
@@ -7852,19 +7852,19 @@
         <v>234219</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>225229</v>
+        <v>225251</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>241385</v>
+        <v>242025</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8880334901340214</v>
+        <v>0.8880334901340211</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8539472701149201</v>
+        <v>0.854033671192182</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9152032747281502</v>
+        <v>0.9176310467185604</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>737</v>
@@ -7873,19 +7873,19 @@
         <v>471766</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>457817</v>
+        <v>457483</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>483638</v>
+        <v>484062</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8833998937656736</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8572799037932689</v>
+        <v>0.8566557070718862</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.905631415444171</v>
+        <v>0.906425431584582</v>
       </c>
     </row>
     <row r="25">
@@ -7902,19 +7902,19 @@
         <v>21584</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14820</v>
+        <v>15155</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30190</v>
+        <v>30383</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07985647036228331</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05483097270483724</v>
+        <v>0.05606979246342967</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1116982131733124</v>
+        <v>0.1124130328311365</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -7923,19 +7923,19 @@
         <v>20044</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14550</v>
+        <v>14154</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27586</v>
+        <v>28264</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07599752864072749</v>
+        <v>0.07599752864072745</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05516656675167712</v>
+        <v>0.0536656600822145</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1045926981830778</v>
+        <v>0.1071605274386531</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -7944,19 +7944,19 @@
         <v>41628</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32563</v>
+        <v>32259</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>53098</v>
+        <v>53732</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07795060366616877</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0609762793895718</v>
+        <v>0.06040549918182438</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0994278065913234</v>
+        <v>0.1006161840270003</v>
       </c>
     </row>
     <row r="26">
@@ -7973,19 +7973,19 @@
         <v>11153</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6182</v>
+        <v>6127</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18617</v>
+        <v>19039</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04126523227086824</v>
+        <v>0.04126523227086822</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02287146233191192</v>
+        <v>0.02266945650718469</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06888128423593518</v>
+        <v>0.07043962844992076</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -7994,19 +7994,19 @@
         <v>9487</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5107</v>
+        <v>5411</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15646</v>
+        <v>15534</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.03596898122525118</v>
+        <v>0.03596898122525115</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01936134917144055</v>
+        <v>0.02051733464285417</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05932019719613105</v>
+        <v>0.05889546784163845</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>27</v>
@@ -8015,19 +8015,19 @@
         <v>20640</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13266</v>
+        <v>13303</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29233</v>
+        <v>29981</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03864950256815748</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02484120655678501</v>
+        <v>0.02490966335543264</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05473933184473513</v>
+        <v>0.05613981400519034</v>
       </c>
     </row>
     <row r="27">
@@ -8119,19 +8119,19 @@
         <v>560592</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>533419</v>
+        <v>532668</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>585878</v>
+        <v>584713</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.789505486384422</v>
+        <v>0.7895054863844221</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7512369511044882</v>
+        <v>0.7501798671127587</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8251172894645326</v>
+        <v>0.8234767101774396</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>718</v>
@@ -8140,19 +8140,19 @@
         <v>574436</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>550795</v>
+        <v>551440</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>596306</v>
+        <v>597864</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7501468382279376</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7192741808435943</v>
+        <v>0.7201167767859967</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7787068429285672</v>
+        <v>0.7807412368603791</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1186</v>
@@ -8161,19 +8161,19 @@
         <v>1135028</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1097777</v>
+        <v>1101896</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1168056</v>
+        <v>1170863</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7690832881950874</v>
+        <v>0.7690832881950873</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7438428843931175</v>
+        <v>0.7466332777260639</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7914631727774026</v>
+        <v>0.793365153372979</v>
       </c>
     </row>
     <row r="29">
@@ -8190,19 +8190,19 @@
         <v>110858</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>89361</v>
+        <v>89719</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>135296</v>
+        <v>136408</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1561257677695545</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1258508764562917</v>
+        <v>0.1263553972771191</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1905428882337484</v>
+        <v>0.1921091908892379</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>182</v>
@@ -8211,19 +8211,19 @@
         <v>147484</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>127432</v>
+        <v>126753</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>168132</v>
+        <v>168248</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.192597544942527</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1664117599030489</v>
+        <v>0.165525115893487</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2195607953770023</v>
+        <v>0.2197126155043902</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>273</v>
@@ -8232,19 +8232,19 @@
         <v>258342</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>226957</v>
+        <v>226736</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>292166</v>
+        <v>289993</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1750500422716241</v>
+        <v>0.1750500422716242</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1537839248964068</v>
+        <v>0.1536343065573343</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1979688000791242</v>
+        <v>0.1964965864038554</v>
       </c>
     </row>
     <row r="30">
@@ -8261,19 +8261,19 @@
         <v>38605</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26288</v>
+        <v>25774</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>55313</v>
+        <v>55526</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05436874584602366</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03702238840343616</v>
+        <v>0.03629824549730254</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07789973388036257</v>
+        <v>0.07819955746802906</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>51</v>
@@ -8282,19 +8282,19 @@
         <v>43844</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32805</v>
+        <v>33332</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>60352</v>
+        <v>59483</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.05725561682953537</v>
+        <v>0.05725561682953538</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04283968449247115</v>
+        <v>0.04352816756700827</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07881286515578799</v>
+        <v>0.07767829048570951</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>82</v>
@@ -8303,19 +8303,19 @@
         <v>82449</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>65604</v>
+        <v>65036</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>104532</v>
+        <v>101853</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05586666953328834</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04445271272260916</v>
+        <v>0.04406748561804816</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07082957598238412</v>
+        <v>0.06901481931000585</v>
       </c>
     </row>
     <row r="31">
@@ -8407,19 +8407,19 @@
         <v>653697</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>628209</v>
+        <v>627674</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>675866</v>
+        <v>674912</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8190957378992128</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7871587629040657</v>
+        <v>0.786487489002704</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8468740167426441</v>
+        <v>0.8456776414258832</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>822</v>
@@ -8428,19 +8428,19 @@
         <v>637938</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>614126</v>
+        <v>615054</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>658768</v>
+        <v>659082</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.769776805007674</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7410437939285848</v>
+        <v>0.7421633754620872</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7949116545402587</v>
+        <v>0.7952910539296161</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1447</v>
@@ -8449,19 +8449,19 @@
         <v>1291635</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1257635</v>
+        <v>1255818</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1323757</v>
+        <v>1319807</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7939715308207423</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7730713770125398</v>
+        <v>0.7719548216264003</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8137168906070879</v>
+        <v>0.8112887284781793</v>
       </c>
     </row>
     <row r="33">
@@ -8478,19 +8478,19 @@
         <v>93320</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>75744</v>
+        <v>75983</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>116488</v>
+        <v>116323</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1169322016104653</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09490882110585974</v>
+        <v>0.09520873455150047</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1459616182251882</v>
+        <v>0.1457549339790389</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>154</v>
@@ -8499,19 +8499,19 @@
         <v>119042</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>101050</v>
+        <v>101169</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>137282</v>
+        <v>138497</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1436442626236034</v>
+        <v>0.1436442626236035</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1219331778132734</v>
+        <v>0.1220770053825764</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1656530643368685</v>
+        <v>0.1671194832730346</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>242</v>
@@ -8520,19 +8520,19 @@
         <v>212363</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>187607</v>
+        <v>185714</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>239257</v>
+        <v>238513</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1305399443785972</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1153222241631734</v>
+        <v>0.1141588717328268</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1470719367189517</v>
+        <v>0.1466144929620941</v>
       </c>
     </row>
     <row r="34">
@@ -8549,19 +8549,19 @@
         <v>51054</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>38682</v>
+        <v>38031</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>66311</v>
+        <v>66646</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06397206049032185</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04846911209920232</v>
+        <v>0.04765343780165308</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08308846577962692</v>
+        <v>0.08350917154196362</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>82</v>
@@ -8570,19 +8570,19 @@
         <v>71751</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>58858</v>
+        <v>58522</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>88895</v>
+        <v>89706</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08657893236872251</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07102153231693199</v>
+        <v>0.0706162282988473</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1072667542050453</v>
+        <v>0.1082446818366541</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>131</v>
@@ -8591,19 +8591,19 @@
         <v>122805</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>101924</v>
+        <v>103016</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>146924</v>
+        <v>145998</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0754885248006604</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06265265246570305</v>
+        <v>0.06332425307690172</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09031425764885004</v>
+        <v>0.08974508288838798</v>
       </c>
     </row>
     <row r="35">
@@ -8695,19 +8695,19 @@
         <v>2926353</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2875328</v>
+        <v>2872282</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2973208</v>
+        <v>2972460</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.8313614763680242</v>
+        <v>0.831361476368024</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8168655812059036</v>
+        <v>0.8160002403996081</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8446727826651875</v>
+        <v>0.8444600752028508</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4447</v>
@@ -8716,19 +8716,19 @@
         <v>3036490</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2994553</v>
+        <v>2990335</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3079951</v>
+        <v>3078856</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.8151635890701638</v>
+        <v>0.8151635890701637</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8039052685931314</v>
+        <v>0.8027729949919615</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8268308604743229</v>
+        <v>0.8265368402134564</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7271</v>
@@ -8737,19 +8737,19 @@
         <v>5962844</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5883123</v>
+        <v>5894034</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6027095</v>
+        <v>6028079</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.8230333084672958</v>
+        <v>0.8230333084672959</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8120295889081935</v>
+        <v>0.8135356193427661</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8319016724129434</v>
+        <v>0.8320374172495986</v>
       </c>
     </row>
     <row r="37">
@@ -8766,19 +8766,19 @@
         <v>435167</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>395526</v>
+        <v>396628</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>479564</v>
+        <v>482248</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1236286678695392</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1123669678639861</v>
+        <v>0.1126799395777273</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1362415400567086</v>
+        <v>0.1370041353140567</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>691</v>
@@ -8787,19 +8787,19 @@
         <v>517320</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>478456</v>
+        <v>480258</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>555159</v>
+        <v>557839</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1388775743065849</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.128444379339386</v>
+        <v>0.1289281668658604</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1490356235089779</v>
+        <v>0.1497551459072106</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1094</v>
@@ -8808,19 +8808,19 @@
         <v>952487</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>891423</v>
+        <v>895342</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1018778</v>
+        <v>1014750</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1314689158460138</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1230404649158835</v>
+        <v>0.123581409258676</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1406187891380551</v>
+        <v>0.1400629143140847</v>
       </c>
     </row>
     <row r="38">
@@ -8837,19 +8837,19 @@
         <v>158433</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>131108</v>
+        <v>130220</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>188104</v>
+        <v>189027</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.04500985576243664</v>
+        <v>0.04500985576243663</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03724708621957166</v>
+        <v>0.03699486002208777</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05343947107493113</v>
+        <v>0.05370148303831883</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>211</v>
@@ -8858,19 +8858,19 @@
         <v>171197</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>148567</v>
+        <v>149372</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>198648</v>
+        <v>197246</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.04595883662325134</v>
+        <v>0.04595883662325133</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03988359875986132</v>
+        <v>0.04009971295144013</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.05332821443954092</v>
+        <v>0.05295177105634827</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>347</v>
@@ -8879,19 +8879,19 @@
         <v>329630</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>291431</v>
+        <v>293278</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>371921</v>
+        <v>369770</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.04549777568669035</v>
+        <v>0.04549777568669037</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.04022529488135361</v>
+        <v>0.04048029251754316</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0513350956481524</v>
+        <v>0.05103820885631264</v>
       </c>
     </row>
     <row r="39">
